--- a/Donnees/Statistiques Economiques/Prix (2).xlsx
+++ b/Donnees/Statistiques Economiques/Prix (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Annuaire\Chapitres_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Ansade_Project\Donnees\Statistiques Economiques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308DE622-C6B2-4E0F-831A-68D4AB1BFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B2F9D-593F-4FB2-88DC-1EA2B9CC440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMcentre NCK" sheetId="10" r:id="rId1"/>
@@ -1360,19 +1360,6 @@
     <definedName name="Zone_impres_MI">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1628,9 +1615,6 @@
     <t>3T2024</t>
   </si>
   <si>
-    <t>T42024</t>
-  </si>
-  <si>
     <t>I. MATERIAUX DE CONSTRUCTION</t>
   </si>
   <si>
@@ -1719,6 +1703,9 @@
   </si>
   <si>
     <t>Evolution de l'indice de coût de construction (ICC base 100 = 2012)</t>
+  </si>
+  <si>
+    <t>4T2024</t>
   </si>
 </sst>
 </file>
@@ -31973,7 +31960,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="9">
         <v>42370</v>
@@ -32302,13 +32289,13 @@
     </row>
     <row r="2" spans="1:118" ht="21.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -32320,7 +32307,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K2" s="13">
         <v>29.5</v>
@@ -32649,13 +32636,13 @@
     </row>
     <row r="3" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="10">
         <v>2</v>
@@ -32667,7 +32654,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K3" s="13">
         <v>49.8</v>
@@ -32996,13 +32983,13 @@
     </row>
     <row r="4" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="10">
         <v>3</v>
@@ -33014,7 +33001,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" s="13">
         <v>18</v>
@@ -33343,13 +33330,13 @@
     </row>
     <row r="5" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="10">
         <v>4</v>
@@ -33361,7 +33348,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" s="13">
         <v>153</v>
@@ -33690,13 +33677,13 @@
     </row>
     <row r="6" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="10">
         <v>5</v>
@@ -33708,7 +33695,7 @@
         <v>25</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K6" s="13">
         <v>155.19999999999999</v>
@@ -34037,13 +34024,13 @@
     </row>
     <row r="7" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="10">
         <v>6</v>
@@ -34055,7 +34042,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="13">
         <v>81.900000000000006</v>
@@ -34384,13 +34371,13 @@
     </row>
     <row r="8" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="10">
         <v>7</v>
@@ -34402,7 +34389,7 @@
         <v>27</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="13">
         <v>58.6</v>
@@ -34731,13 +34718,13 @@
     </row>
     <row r="9" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="10">
         <v>8</v>
@@ -34749,7 +34736,7 @@
         <v>28</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="13">
         <v>69.8</v>
@@ -35078,13 +35065,13 @@
     </row>
     <row r="10" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="10">
         <v>9</v>
@@ -35096,7 +35083,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="13">
         <v>138.80000000000001</v>
@@ -35425,13 +35412,13 @@
     </row>
     <row r="11" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="10">
         <v>10</v>
@@ -35443,7 +35430,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="13">
         <v>23.2</v>
@@ -35772,13 +35759,13 @@
     </row>
     <row r="12" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="10">
         <v>11</v>
@@ -35790,7 +35777,7 @@
         <v>31</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="13">
         <v>304</v>
@@ -36119,13 +36106,13 @@
     </row>
     <row r="13" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="10">
         <v>12</v>
@@ -36137,7 +36124,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="13">
         <v>82.5</v>
@@ -36466,13 +36453,13 @@
     </row>
     <row r="14" spans="1:118" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="10">
         <v>13</v>
@@ -36484,7 +36471,7 @@
         <v>33</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="13">
         <v>38.5</v>
@@ -36824,8 +36811,8 @@
   </sheetPr>
   <dimension ref="A1:BH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36880,7 +36867,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>34</v>
@@ -37030,18 +37017,18 @@
         <v>82</v>
       </c>
       <c r="BH1" s="24" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:60" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="25">
         <v>1</v>
@@ -37050,10 +37037,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2" s="29">
         <v>100.70459241201665</v>
@@ -37208,13 +37195,13 @@
     </row>
     <row r="3" spans="1:60" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="25">
         <v>2</v>
@@ -37226,10 +37213,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K3" s="29">
         <v>100.48275959338508</v>
@@ -37384,13 +37371,13 @@
     </row>
     <row r="4" spans="1:60" s="25" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="25">
         <v>3</v>
@@ -37402,10 +37389,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4" s="32">
         <v>102.8877086943279</v>
@@ -37560,13 +37547,13 @@
     </row>
     <row r="5" spans="1:60" s="25" customFormat="1" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="25">
         <v>4</v>
@@ -37578,10 +37565,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" s="32">
         <v>99.118756528416199</v>
@@ -37736,13 +37723,13 @@
     </row>
     <row r="6" spans="1:60" s="25" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="25">
         <v>5</v>
@@ -37754,10 +37741,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="32">
         <v>101.68359864755594</v>
@@ -38044,13 +38031,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="1">
         <v>42370</v>
@@ -38406,10 +38393,10 @@
     </row>
     <row r="4" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A4" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -38418,7 +38405,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="41">
         <v>10000</v>
@@ -38777,10 +38764,10 @@
     </row>
     <row r="5" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A5" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="38">
         <v>2</v>
@@ -39151,10 +39138,10 @@
     </row>
     <row r="6" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A6" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="38">
         <v>3</v>
@@ -39525,10 +39512,10 @@
     </row>
     <row r="7" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A7" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="38">
         <v>4</v>
@@ -39899,10 +39886,10 @@
     </row>
     <row r="8" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="38">
         <v>5</v>
@@ -40273,10 +40260,10 @@
     </row>
     <row r="9" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A9" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="38">
         <v>6</v>
@@ -40647,10 +40634,10 @@
     </row>
     <row r="10" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A10" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="38">
         <v>7</v>
@@ -41021,10 +41008,10 @@
     </row>
     <row r="11" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A11" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="38">
         <v>8</v>
@@ -41395,10 +41382,10 @@
     </row>
     <row r="12" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A12" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="38">
         <v>9</v>
@@ -41769,10 +41756,10 @@
     </row>
     <row r="13" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A13" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="38">
         <v>10</v>
@@ -42143,10 +42130,10 @@
     </row>
     <row r="14" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A14" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="38">
         <v>11</v>
@@ -42517,10 +42504,10 @@
     </row>
     <row r="15" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A15" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="38">
         <v>12</v>
@@ -42891,10 +42878,10 @@
     </row>
     <row r="16" spans="1:124" x14ac:dyDescent="0.5">
       <c r="A16" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="38">
         <v>13</v>
@@ -43274,7 +43261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82444A1-DA52-4577-B0B4-9E4508A647AC}">
   <dimension ref="A1:DS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -48142,10 +48129,10 @@
     </row>
     <row r="4" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="43">
         <v>1</v>
@@ -48154,7 +48141,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="45">
         <v>91.147381366302682</v>
@@ -48510,10 +48497,10 @@
     </row>
     <row r="5" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="43">
         <v>2</v>
@@ -48881,10 +48868,10 @@
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="43">
         <v>3</v>
@@ -49252,10 +49239,10 @@
     </row>
     <row r="7" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="43">
         <v>4</v>
@@ -49623,10 +49610,10 @@
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="43">
         <v>5</v>
@@ -49994,10 +49981,10 @@
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="43">
         <v>6</v>
@@ -50365,10 +50352,10 @@
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="43">
         <v>7</v>
@@ -50736,10 +50723,10 @@
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="43">
         <v>8</v>
@@ -51107,10 +51094,10 @@
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="43">
         <v>9</v>
@@ -51478,10 +51465,10 @@
     </row>
     <row r="13" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="43">
         <v>10</v>
@@ -51849,10 +51836,10 @@
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="43">
         <v>11</v>
@@ -52220,10 +52207,10 @@
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="43">
         <v>12</v>
@@ -52591,10 +52578,10 @@
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="43">
         <v>13</v>
